--- a/biology/Médecine/Insuffisance_veineuse/Insuffisance_veineuse.xlsx
+++ b/biology/Médecine/Insuffisance_veineuse/Insuffisance_veineuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insuffisance veineuse est un terme qui sert à désigner un déficit circulatoire veineux des membres inférieurs.
 Lorsque les parois des veines sont en mauvais état avec hypotonie, cela entraîne un reflux sanguin dans les veines superficielles ; la dilatation des veines touchées perturbe l'écoulement unidirectionnel du sang vers le cœur, les valvules n'assurant plus leur fonction antireflux, le sang s'accumule dans les jambes qui deviennent lourdes, enflées et douloureuses. C'est ce qu'on appelle l'insuffisance veineuse, qui peut avoir comme conséquence la formation de varices, sans corrélation directe avec une phlébite.
@@ -513,7 +525,9 @@
           <t>Types d'insuffisance veineuse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Insuffisance veineuse superficielle
 Insuffisance veineuse profonde
@@ -545,9 +559,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20 millions de patients en France sont insuffisants veineux. Cette pathologie touche 1 femme sur 2 et 1 homme sur 4[1]. Seulement 30 % des patients sont traités car ils sous-estiment leur pathologie[2]. L'atteinte concerne essentiellement la femme occidentale et semble beaucoup plus rare en Afrique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 millions de patients en France sont insuffisants veineux. Cette pathologie touche 1 femme sur 2 et 1 homme sur 4. Seulement 30 % des patients sont traités car ils sous-estiment leur pathologie. L'atteinte concerne essentiellement la femme occidentale et semble beaucoup plus rare en Afrique.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La gêne au retour sanguin veineux peut être provoqué par un obstacle (compression ou thrombose), une incontinence valvulaire autorisant un reflux sanguin, une dilatation importante du réseau veineux (varices), ou une dysfonction de la pompe musculo-veineuse.
 </t>
@@ -607,7 +625,9 @@
           <t>Signes d'insuffisance veineuse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La sémiologie de l'insuffisance veineuse est essentiellement cutanée. Elle entraîne entre autres : 
 des douleurs ou lourdeurs des jambes, typiquement à prédominance vespérale, survenant après une position debout prolongée et s'amendant en position allongée, par surélévation des jambes ou au contact du froid ;
